--- a/data/trans_dic/P33B_R5-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R5-Clase-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.07191286194312428</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.09468722454912651</v>
+        <v>0.09468722454912648</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.08261828497455352</v>
+        <v>0.08261828497455351</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05226850618573678</v>
+        <v>0.05349027863968611</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07374324341345137</v>
+        <v>0.07574019558683005</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.067836700687117</v>
+        <v>0.06803022143365882</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09638080376202002</v>
+        <v>0.09692075780680805</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1188752405778114</v>
+        <v>0.1217865699332271</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09886895237711378</v>
+        <v>0.09893643790064445</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.07446849125524896</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07008253030590392</v>
+        <v>0.0700825303059039</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04828824035120015</v>
+        <v>0.0479877976331196</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05404232076032067</v>
+        <v>0.05609897261084552</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05674847307175514</v>
+        <v>0.05578228961899092</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08728699744817449</v>
+        <v>0.08986640373771174</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09524695944452012</v>
+        <v>0.0960849170041375</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08506367246507551</v>
+        <v>0.08793321101311039</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.07943371046144633</v>
+        <v>0.07943371046144632</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.147865023416456</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05926270750715727</v>
+        <v>0.0598017363278723</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.106868170776793</v>
+        <v>0.1109596625231647</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07971044688816953</v>
+        <v>0.08024622744140932</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1079455410329763</v>
+        <v>0.1068243101043108</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1936690427092358</v>
+        <v>0.1977179379772941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1225036176548042</v>
+        <v>0.1224388579530886</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.09123675694356498</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.08373115198479547</v>
+        <v>0.08373115198479551</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06368627430405416</v>
+        <v>0.06413309989741617</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07572445613548967</v>
+        <v>0.0764697467373254</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07360929539200303</v>
+        <v>0.07297643150901306</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09502056792117715</v>
+        <v>0.09438025220525235</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1083332662785994</v>
+        <v>0.1095624096602529</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09606617382979801</v>
+        <v>0.09580072779005185</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.05414978980885221</v>
+        <v>0.0541497898088522</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1756680468195974</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03813436237560792</v>
+        <v>0.03780861482059297</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1542090478952809</v>
+        <v>0.1552579114216601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1116365208742134</v>
+        <v>0.1131426060256352</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07609380150324253</v>
+        <v>0.07349488794610949</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1982989077103318</v>
+        <v>0.196224035965262</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1409079600505276</v>
+        <v>0.1419394439320047</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.02720679712230463</v>
+        <v>0.02720679712230464</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.1613503291541029</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.008156591172876782</v>
+        <v>0.008183050762900585</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1410201294037991</v>
+        <v>0.1424059221800673</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1141451177449297</v>
+        <v>0.1146308212914214</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07811749743906284</v>
+        <v>0.08730376593724325</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1830848954917044</v>
+        <v>0.1857671247632405</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1497324470936911</v>
+        <v>0.1513398952271229</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.06815429340339724</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1282551940869491</v>
+        <v>0.128255194086949</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.09902462777058242</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0598752784586679</v>
+        <v>0.06046761792026472</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1191545991774481</v>
+        <v>0.1189191864301042</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09298191120315208</v>
+        <v>0.09297004664810891</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07607794057727874</v>
+        <v>0.07608888991733206</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1374962593447891</v>
+        <v>0.1378286146831608</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1056997290338457</v>
+        <v>0.1055913447807739</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>28780</v>
+        <v>29453</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36017</v>
+        <v>36992</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>70484</v>
+        <v>70685</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>53069</v>
+        <v>53366</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>58060</v>
+        <v>59482</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>102728</v>
+        <v>102798</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23333</v>
+        <v>23188</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22831</v>
+        <v>23700</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>51396</v>
+        <v>50521</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>42178</v>
+        <v>43425</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40239</v>
+        <v>40593</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>77041</v>
+        <v>79640</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>27949</v>
+        <v>28203</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20037</v>
+        <v>20805</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>52538</v>
+        <v>52891</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>50908</v>
+        <v>50380</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36312</v>
+        <v>37072</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>80743</v>
+        <v>80701</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>72083</v>
+        <v>72589</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>65170</v>
+        <v>65811</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>146663</v>
+        <v>145402</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>107548</v>
+        <v>106824</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>93233</v>
+        <v>94291</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>191408</v>
+        <v>190879</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>21580</v>
+        <v>21396</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>128013</v>
+        <v>128884</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>155847</v>
+        <v>157950</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>43061</v>
+        <v>41590</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>164613</v>
+        <v>162891</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>196711</v>
+        <v>198151</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1935</v>
+        <v>1941</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>119061</v>
+        <v>120231</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>123449</v>
+        <v>123974</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>18532</v>
+        <v>20711</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>154575</v>
+        <v>156840</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>161937</v>
+        <v>163675</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>205995</v>
+        <v>208033</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>432937</v>
+        <v>432082</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>657737</v>
+        <v>657653</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>261739</v>
+        <v>261777</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>499580</v>
+        <v>500787</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>747700</v>
+        <v>746933</v>
       </c>
     </row>
     <row r="32">
